--- a/sw/instruction code.xlsx
+++ b/sw/instruction code.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ARC\sw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -146,21 +146,6 @@
     <t>392d0001</t>
   </si>
   <si>
-    <t>0x292e0004</t>
-  </si>
-  <si>
-    <t>o1288825</t>
-  </si>
-  <si>
-    <t>o1280820</t>
-  </si>
-  <si>
-    <t>o1289024</t>
-  </si>
-  <si>
-    <t>o0099842</t>
-  </si>
-  <si>
     <t>r2=8</t>
   </si>
   <si>
@@ -219,6 +204,21 @@
   </si>
   <si>
     <t>r14=1</t>
+  </si>
+  <si>
+    <t>01288020</t>
+  </si>
+  <si>
+    <t>01288825</t>
+  </si>
+  <si>
+    <t>01289024</t>
+  </si>
+  <si>
+    <t>00099842</t>
+  </si>
+  <si>
+    <t>292e0004</t>
   </si>
 </sst>
 </file>
@@ -256,7 +256,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,20 +539,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="J1" t="s">
@@ -563,29 +563,29 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -593,187 +593,187 @@
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="F9" t="s">
-        <v>42</v>
+      <c r="F9" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="J9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="F10" t="s">
-        <v>41</v>
+      <c r="F10" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="J10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="F11" t="s">
-        <v>43</v>
+      <c r="F11" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="J11" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="F12" t="s">
-        <v>44</v>
+      <c r="F12" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="J12" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J13" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J15" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="1" t="s">
         <v>32</v>
       </c>
       <c r="J16" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J17" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="1" t="s">
         <v>34</v>
       </c>
       <c r="J18" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="1" t="s">
         <v>35</v>
       </c>
       <c r="J19" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="1" t="s">
         <v>36</v>
       </c>
       <c r="J21" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J22" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="1" t="s">
         <v>38</v>
       </c>
       <c r="J23" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="1" t="s">
         <v>39</v>
       </c>
       <c r="J24" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -781,10 +781,10 @@
         <v>23</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J25" t="s">
         <v>64</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/sw/instruction code.xlsx
+++ b/sw/instruction code.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>Instruction</t>
   </si>
@@ -179,9 +179,6 @@
     <t>r22=1</t>
   </si>
   <si>
-    <t>r23=12</t>
-  </si>
-  <si>
     <t>r24=3</t>
   </si>
   <si>
@@ -219,6 +216,57 @@
   </si>
   <si>
     <t>292e0004</t>
+  </si>
+  <si>
+    <t>r23=-4</t>
+  </si>
+  <si>
+    <t>lui $s0, 0xffff</t>
+  </si>
+  <si>
+    <t>3c10ffff</t>
+  </si>
+  <si>
+    <t>r16=ffff0000</t>
+  </si>
+  <si>
+    <t>lbu $s1, 0x0020</t>
+  </si>
+  <si>
+    <t>90110020</t>
+  </si>
+  <si>
+    <t>r17=100</t>
+  </si>
+  <si>
+    <t>lhu $s2, 0x0024</t>
+  </si>
+  <si>
+    <t>94120024</t>
+  </si>
+  <si>
+    <t>r18=4</t>
+  </si>
+  <si>
+    <t>jal</t>
+  </si>
+  <si>
+    <t>jr</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>bne</t>
+  </si>
+  <si>
+    <t>beq</t>
+  </si>
+  <si>
+    <t>blez</t>
+  </si>
+  <si>
+    <t>bgtz</t>
   </si>
 </sst>
 </file>
@@ -234,12 +282,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -254,9 +308,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:V37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,7 +672,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J9" t="s">
         <v>44</v>
@@ -627,7 +683,7 @@
         <v>9</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J10" t="s">
         <v>45</v>
@@ -638,7 +694,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J11" t="s">
         <v>46</v>
@@ -649,7 +705,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J12" t="s">
         <v>47</v>
@@ -696,10 +752,10 @@
         <v>32</v>
       </c>
       <c r="J16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -707,10 +763,10 @@
         <v>33</v>
       </c>
       <c r="J17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -718,10 +774,10 @@
         <v>34</v>
       </c>
       <c r="J18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -729,10 +785,10 @@
         <v>35</v>
       </c>
       <c r="J19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -740,10 +796,10 @@
         <v>36</v>
       </c>
       <c r="J21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -751,10 +807,10 @@
         <v>37</v>
       </c>
       <c r="J22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -762,10 +818,10 @@
         <v>38</v>
       </c>
       <c r="J23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -773,18 +829,107 @@
         <v>39</v>
       </c>
       <c r="J24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
